--- a/Projects/LIONNZ_SAND/Data/Assortments.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Assortments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Granular Groups" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t xml:space="preserve">Granular Group Name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">DST_MANUFACTURER_BY_SHELF_ASSORTMENT_RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROD_PRES_Group_A_Four_Square_NI</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT_PRESENCE_BY_SHELF_ASSORTMENT_RE</t>
@@ -342,20 +345,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,12 +404,26 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1023456</v>
       </c>
       <c r="D4" s="7" t="n">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1023456</v>
+      </c>
+      <c r="D5" s="7" t="n">
         <v>43105</v>
       </c>
     </row>
@@ -426,25 +443,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,34 +483,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,22 +541,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,22 +564,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,22 +587,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/LIONNZ_SAND/Data/Assortments.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Assortments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Granular Groups" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t xml:space="preserve">Granular Group Name</t>
   </si>
@@ -41,13 +41,7 @@
     <t xml:space="preserve">DST_Group_A_Four_Square_NI</t>
   </si>
   <si>
-    <t xml:space="preserve">DST_MANUFACTURER_BY_SHELF_ASSORTMENT_RE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROD_PRES_Group_A_Four_Square_NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_PRESENCE_BY_SHELF_ASSORTMENT_RE</t>
+    <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
   </si>
   <si>
     <t xml:space="preserve">Store_Att_1 Name</t>
@@ -347,18 +341,18 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,10 +409,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1023456</v>
@@ -443,26 +437,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,34 +477,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,22 +512,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,22 +558,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,45 +581,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/LIONNZ_SAND/Data/Assortments.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Assortments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Granular Groups" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t xml:space="preserve">Granular Group Name</t>
   </si>
@@ -38,12 +38,18 @@
     <t xml:space="preserve">End date</t>
   </si>
   <si>
-    <t xml:space="preserve">DST_Group_A_Four_Square_NI</t>
+    <t xml:space="preserve">DST_Group_Super Value</t>
   </si>
   <si>
     <t xml:space="preserve">DST_MAN_BY_STORE_PERC</t>
   </si>
   <si>
+    <t xml:space="preserve">EAN 0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DST_Group_Liquorland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Store_Att_1 Name</t>
   </si>
   <si>
@@ -77,29 +83,34 @@
     <t xml:space="preserve">store_type</t>
   </si>
   <si>
+    <t xml:space="preserve">ON PREMISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Value</t>
+  </si>
+  <si>
     <t xml:space="preserve">OFF PREMISE</t>
   </si>
   <si>
-    <t xml:space="preserve">additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retailer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four Square NI</t>
+    <t xml:space="preserve">Liquorland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -138,7 +149,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,12 +158,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3BE3C"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -175,13 +192,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -221,44 +231,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,7 +353,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -339,86 +365,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>1023456</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="1" t="n">
+        <v>721059867009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>1023456</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="1" t="n">
+        <v>9414774218010</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>1023456</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>43105</v>
+      <c r="C5" s="1" t="n">
+        <v>9421903316424</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>721059861007</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>721059777001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>721059867009</v>
       </c>
     </row>
   </sheetData>
@@ -437,166 +498,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/LIONNZ_SAND/Data/Assortments.xlsx
+++ b/Projects/LIONNZ_SAND/Data/Assortments.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups'!$A$2:$E$885</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups'!$A$2:$E$885</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups'!$A$2:$E$885</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$710</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$710</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$885</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$710</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$710</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
@@ -28,9 +28,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
@@ -38,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Granular Groups link to stores'!$A$2:$K$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1045,17 +1047,17 @@
   <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C893" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="C893" activeCellId="0" sqref="C893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13391,23 +13393,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.515306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13827,7 +13829,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K18"/>
+  <autoFilter ref="A2:K14"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
